--- a/tests/videos/vertical/videos-meta.xlsx
+++ b/tests/videos/vertical/videos-meta.xlsx
@@ -1,169 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenke/github/tiktoka-studio-uploader-app/tests/videos/vertical/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1092F59-ED4A-AE4A-9092-D71F62F31FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="37600" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>video_local_path</t>
-  </si>
-  <si>
-    <t>video_filename</t>
-  </si>
-  <si>
-    <t>video_title</t>
-  </si>
-  <si>
-    <t>heading</t>
-  </si>
-  <si>
-    <t>subheading</t>
-  </si>
-  <si>
-    <t>extraheading</t>
-  </si>
-  <si>
-    <t>video_description</t>
-  </si>
-  <si>
-    <t>thumbnail_bg_image_path</t>
-  </si>
-  <si>
-    <t>thumbnail_local_path</t>
-  </si>
-  <si>
-    <t>release_date</t>
-  </si>
-  <si>
-    <t>release_date_hour</t>
-  </si>
-  <si>
-    <t>is_not_for_kid</t>
-  </si>
-  <si>
-    <t>categories</t>
-  </si>
-  <si>
-    <t>comments_ratings_policy</t>
-  </si>
-  <si>
-    <t>is_age_restriction</t>
-  </si>
-  <si>
-    <t>is_paid_promotion</t>
-  </si>
-  <si>
-    <t>is_automatic_chapters</t>
-  </si>
-  <si>
-    <t>is_featured_place</t>
-  </si>
-  <si>
-    <t>video_language</t>
-  </si>
-  <si>
-    <t>captions_certification</t>
-  </si>
-  <si>
-    <t>video_film_date</t>
-  </si>
-  <si>
-    <t>video_film_location</t>
-  </si>
-  <si>
-    <t>license_type</t>
-  </si>
-  <si>
-    <t>is_allow_embedding</t>
-  </si>
-  <si>
-    <t>is_publish_to_subscriptions_feed_notify</t>
-  </si>
-  <si>
-    <t>shorts_remixing_type</t>
-  </si>
-  <si>
-    <t>is_show_howmany_likes</t>
-  </si>
-  <si>
-    <t>is_monetization_allowed</t>
-  </si>
-  <si>
-    <t>first_comment</t>
-  </si>
-  <si>
-    <t>subtitles</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>/Users/wenke/github/tiktoka-studio-uploader-app/tests/videos/vertical/1.mp4</t>
-  </si>
-  <si>
-    <t>1.mp4</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>10:15</t>
-  </si>
-  <si>
-    <t>xxxx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sssssss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -178,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -502,139 +420,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>video_local_path</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>video_filename</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>video_title</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>heading</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>subheading</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>extraheading</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>video_description</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>thumbnail_bg_image_path</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>thumbnail_local_path</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>release_date</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>release_date_hour</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>is_not_for_kid</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>categories</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>comments_ratings_policy</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>is_age_restriction</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>is_paid_promotion</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>is_automatic_chapters</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>is_featured_place</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>video_language</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>captions_certification</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>video_film_date</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>video_film_location</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>license_type</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>is_allow_embedding</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>is_publish_to_subscriptions_feed_notify</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>shorts_remixing_type</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>is_show_howmany_likes</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>is_monetization_allowed</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>first_comment</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>subtitles</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>/Users/wenke/github/tiktoka-studio-uploader-app/tests/videos/vertical/1.mp4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.mp4</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>我是中文</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>english please</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>/Users/wenke/github/tiktoka-studio-uploader-app/tests/videos/vertical/sp/1-001.jpg</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>10:15</t>
+        </is>
       </c>
       <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="O2">
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="b">
@@ -649,10 +654,13 @@
       <c r="S2" t="b">
         <v>1</v>
       </c>
-      <c r="U2">
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
-      <c r="X2">
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="b">
@@ -661,7 +669,7 @@
       <c r="Z2" t="b">
         <v>1</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="b">
@@ -670,9 +678,11 @@
       <c r="AC2" t="b">
         <v>1</v>
       </c>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>